--- a/Running projects/Food Court North Walk/330 Invoice for supply of HVAC Work - food courts.xlsx
+++ b/Running projects/Food Court North Walk/330 Invoice for supply of HVAC Work - food courts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FB751A-9EA4-4FCD-90F3-172A1F18DA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3347400-AE22-4691-98FC-A871A1ADBF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,16 +88,7 @@
     <t>Labour Amount</t>
   </si>
   <si>
-    <t>Making of Shop drawings &amp; As built on Auto CAD 2018.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job </t>
-  </si>
-  <si>
     <t>Testing &amp; commissioning cordination with supplier</t>
-  </si>
-  <si>
-    <t>Painting &amp; Identification.</t>
   </si>
   <si>
     <t>Re-align, regging and shifting packaged unit as required including supply &amp; installation of vibration islolator 4" thick (6 x 3 units)</t>
@@ -192,9 +183,6 @@
     <t>4312149-7</t>
   </si>
   <si>
-    <t>29-12-23</t>
-  </si>
-  <si>
     <t>Invoice #</t>
   </si>
   <si>
@@ -243,9 +231,6 @@
     <t>Supply of hangers /  supports for G.I sheet metal ducts.</t>
   </si>
   <si>
-    <t>Supply of control wiring including installation of thermostat complete in all respect.</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -253,6 +238,21 @@
   </si>
   <si>
     <t>Supply of HVAC work Food Court - The North Walk Shopping Mall</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Supply of control wiring.</t>
+  </si>
+  <si>
+    <t>As built drawings.</t>
+  </si>
+  <si>
+    <t>Paint.</t>
+  </si>
+  <si>
+    <t>18-01-24</t>
   </si>
 </sst>
 </file>
@@ -550,6 +550,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,9 +579,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -889,7 +889,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>721014</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1244,19 +1244,19 @@
   <sheetData>
     <row r="5" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
+    <row r="7" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
       <c r="E7" s="38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>8</v>
       </c>
@@ -1264,33 +1264,33 @@
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
       <c r="E8" s="38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" s="39">
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
       <c r="E9" s="38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="8" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="1:6" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
@@ -1301,14 +1301,14 @@
       <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" s="8" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="A12" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6" s="8" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
@@ -1319,14 +1319,14 @@
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
+      <c r="A14" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21"/>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>6</v>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>5</v>
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>5</v>
@@ -1432,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>5</v>
@@ -1457,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>5</v>
@@ -1482,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -1495,10 +1495,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>6</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>6</v>
@@ -1548,7 +1548,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>6</v>
@@ -1573,7 +1573,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>6</v>
@@ -1598,7 +1598,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>7</v>
@@ -1623,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>6</v>
@@ -1648,7 +1648,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>6</v>
@@ -1673,7 +1673,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>6</v>
@@ -1698,10 +1698,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>58</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>4</v>
       </c>
       <c r="D31" s="23">
         <v>1</v>
@@ -1723,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>19</v>
@@ -1743,7 +1743,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="1:13" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>14</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>59</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D33" s="23">
         <v>3</v>
@@ -1773,10 +1773,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D34" s="23">
         <v>1</v>
@@ -1797,12 +1797,12 @@
       </c>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="1:13" ht="34.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>19</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>4</v>
@@ -1836,13 +1836,13 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
+      <c r="A36" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="27">
         <f>SUM(F17:F35)</f>
         <v>3661200</v>
@@ -1853,34 +1853,34 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
+      <c r="A37" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
       <c r="F37" s="40">
         <v>217269</v>
       </c>
-      <c r="I37" s="52" t="s">
+      <c r="I37" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
       <c r="M37" s="9" t="e">
         <f>M35-M36</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
+      <c r="A38" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
       <c r="F38" s="40">
         <f>F36-F37</f>
         <v>3443931</v>
@@ -1898,13 +1898,13 @@
       <c r="M38" s="11"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
+      <c r="A39" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
       <c r="F39" s="40">
         <v>2562840</v>
       </c>
@@ -1923,21 +1923,21 @@
       <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
+      <c r="A40" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
       <c r="F40" s="40">
         <f>F38-F39</f>
         <v>881091</v>
       </c>
-      <c r="I40" s="45" t="s">
+      <c r="I40" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="46"/>
+      <c r="J40" s="47"/>
       <c r="K40" s="15">
         <f>K38-K39</f>
         <v>2043232.5</v>
@@ -1949,22 +1949,22 @@
       <c r="M41" s="9"/>
     </row>
     <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="K42" s="12"/>
       <c r="M42" s="9"/>
     </row>
     <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
+      <c r="A43" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="10"/>
       <c r="F43" s="28">
         <v>217269</v>
@@ -1979,10 +1979,10 @@
       <c r="M43" s="9"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="10"/>
       <c r="F44" s="29">
         <v>4299115</v>
@@ -2124,7 +2124,7 @@
     <mergeCell ref="A39:E39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2148,7 +2148,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I2" s="36">
         <v>4.8107200000000003E-2</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="34">
         <v>3661200</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="35">
         <f>C3*50%</f>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="32">
         <f>C4*I2</f>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="34">
         <f>C4-C5</f>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="34">
         <f>C7+C6</f>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34">
@@ -2241,7 +2241,7 @@
     </row>
     <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="34">
         <v>3661200</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="35">
         <f>C13*50%</f>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="16" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="34">
         <f>C15+C14</f>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" s="32">
         <f>C16*I2</f>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="34">
         <f>C16-C17</f>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="20" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D20" s="37">
         <f>D18+C18</f>
